--- a/ExcelData/TC_JobTitles.xlsx
+++ b/ExcelData/TC_JobTitles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>jobDescription</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Office care person</t>
-  </si>
-  <si>
-    <t>OfficeGirl</t>
   </si>
   <si>
     <t>jobTitle</t>
@@ -373,7 +370,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +381,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -398,14 +395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
